--- a/reports/sea_forecasting/date_quantity.xlsx
+++ b/reports/sea_forecasting/date_quantity.xlsx
@@ -457,7 +457,7 @@
         <v>45412</v>
       </c>
       <c r="C2" t="n">
-        <v>821.9443600400347</v>
+        <v>821.652356587983</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>45443</v>
       </c>
       <c r="C3" t="n">
-        <v>808.9072963193122</v>
+        <v>808.6168161961772</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>45473</v>
       </c>
       <c r="C4" t="n">
-        <v>854.9126106909436</v>
+        <v>854.6211027706023</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>45504</v>
       </c>
       <c r="C5" t="n">
-        <v>777.4559099615827</v>
+        <v>777.1610912872889</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>45535</v>
       </c>
       <c r="C6" t="n">
-        <v>879.918839885741</v>
+        <v>879.6255415427429</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>45565</v>
       </c>
       <c r="C7" t="n">
-        <v>862.9123317918069</v>
+        <v>862.6187104189702</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>45596</v>
       </c>
       <c r="C8" t="n">
-        <v>873.8967127512237</v>
+        <v>873.6033173818705</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         <v>45626</v>
       </c>
       <c r="C9" t="n">
-        <v>812.3917790849094</v>
+        <v>812.0979647562256</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>45657</v>
       </c>
       <c r="C10" t="n">
-        <v>761.3514750251046</v>
+        <v>761.0593737377934</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>45688</v>
       </c>
       <c r="C11" t="n">
-        <v>867.5745724385148</v>
+        <v>867.1845816133915</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>45716</v>
       </c>
       <c r="C12" t="n">
-        <v>789.1362200625201</v>
+        <v>788.7464515223018</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +578,7 @@
         <v>45747</v>
       </c>
       <c r="C13" t="n">
-        <v>921.6680175443333</v>
+        <v>920.6110761705969</v>
       </c>
     </row>
   </sheetData>
